--- a/ProjectRequirements.xlsx
+++ b/ProjectRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakehoogstrate/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakehoogstrate/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3EE37B-095E-7A4C-A8B0-4C04CE419EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E125E2AE-95E6-D04D-AA98-8FE2E48B4C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="3120" windowWidth="28560" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1040" windowWidth="28560" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
